--- a/elo/knapsack/fantasydf_spec.xlsx
+++ b/elo/knapsack/fantasydf_spec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -31,193 +31,190 @@
     <t>elo</t>
   </si>
   <si>
+    <t>points</t>
+  </si>
+  <si>
     <t>place</t>
   </si>
   <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Calle HALFVARSSON</t>
+  </si>
+  <si>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
     <t>Ivan YAKIMUSHKIN</t>
   </si>
   <si>
+    <t>Jean Marc GAILLARD</t>
+  </si>
+  <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Maurice MANIFICAT</t>
   </si>
   <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
     <t>Lucas BOEGL</t>
   </si>
   <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>Clement PARISSE</t>
+  </si>
+  <si>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Ireneu ESTEVE ALTIMIRAS</t>
+  </si>
+  <si>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Oskar SVENSSON</t>
+  </si>
+  <si>
     <t>Hugo LAPALUS</t>
   </si>
   <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Andrew MUSGRAVE</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
+    <t>Beda KLEE</t>
+  </si>
+  <si>
+    <t>Giandomenico SALVADORI</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Jules LAPIERRE</t>
+  </si>
+  <si>
+    <t>Thomas BING</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
   </si>
   <si>
     <t>Janosch BRUGGER</t>
   </si>
   <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
-    <t>Krista PARMAKOSKI</t>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Yulia STUPAK</t>
+  </si>
+  <si>
+    <t>Frida KARLSSON</t>
   </si>
   <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Frida KARLSSON</t>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Alisa ZHAMBALOVA</t>
+  </si>
+  <si>
+    <t>Jonna SUNDLING</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
+  </si>
+  <si>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
   </si>
   <si>
     <t>Tatiana SORINA</t>
   </si>
   <si>
-    <t>Katharina HENNIG</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
+    <t>Anna COMARELLA</t>
+  </si>
+  <si>
+    <t>Pia FINK</t>
   </si>
   <si>
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
+    <t>Izabela MARCISZ</t>
+  </si>
+  <si>
+    <t>Jasmi JOENSUU</t>
+  </si>
+  <si>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
+    <t>Moa LUNDGREN</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
+    <t>Moa OLSSON</t>
   </si>
   <si>
     <t>Lucia SCARDONI</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Anna NECHAEVSKAYA</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Moa OLSSON</t>
-  </si>
-  <si>
-    <t>Pia FINK</t>
   </si>
   <si>
     <t>m</t>
@@ -581,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,16 +606,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3482277</v>
@@ -627,416 +621,374 @@
         <v>22366</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>1553.467382604635</v>
+        <v>1563.275946183737</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D3">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>1459.35692133401</v>
+        <v>1482.662726865662</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3482280</v>
+        <v>3510023</v>
       </c>
       <c r="D4">
-        <v>2646</v>
+        <v>4296</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>1413.801479498963</v>
+        <v>1476.916988069916</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3482119</v>
+        <v>3500664</v>
       </c>
       <c r="D5">
-        <v>4000</v>
+        <v>2131</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>1416.28774144958</v>
+        <v>1476.425581844955</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3481161</v>
+        <v>3290379</v>
       </c>
       <c r="D6">
-        <v>3443</v>
+        <v>3407</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>1469.425719390575</v>
+        <v>1475.680515909988</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3481803</v>
+        <v>3482105</v>
       </c>
       <c r="D7">
-        <v>7488</v>
+        <v>5172</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>1420.651593332222</v>
+        <v>1474.144521312184</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3481432</v>
+        <v>1345875</v>
       </c>
       <c r="D8">
-        <v>4522</v>
+        <v>900</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>1393.290714128157</v>
+        <v>1445.783254375694</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3190111</v>
+        <v>3481803</v>
       </c>
       <c r="D9">
-        <v>1450</v>
+        <v>7488</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>1401.01901102471</v>
+        <v>1435.725893921808</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3510023</v>
+        <v>3482119</v>
       </c>
       <c r="D10">
-        <v>4296</v>
+        <v>4000</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
-        <v>1476.030285073965</v>
+        <v>1432.544505095437</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>3200205</v>
+        <v>3482280</v>
       </c>
       <c r="D11">
-        <v>1319</v>
+        <v>2646</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>1390.467596204614</v>
+        <v>1427.69866149672</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>3190529</v>
+        <v>3481988</v>
       </c>
       <c r="D12">
-        <v>471</v>
+        <v>1838</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>1344.943457738786</v>
+        <v>1417.187259636551</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>3500664</v>
+        <v>3190111</v>
       </c>
       <c r="D13">
-        <v>2131</v>
+        <v>1450</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>1480.059919186682</v>
+        <v>1416.75585851898</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3481432</v>
+      </c>
+      <c r="D14">
+        <v>4522</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>1407.933806114894</v>
+      </c>
+      <c r="G14">
         <v>20</v>
-      </c>
-      <c r="C14">
-        <v>3200356</v>
-      </c>
-      <c r="D14">
-        <v>579</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>1357.904822998978</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3220002</v>
+        <v>3200205</v>
       </c>
       <c r="D15">
-        <v>5122</v>
+        <v>1319</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>1409.245423522446</v>
+        <v>1403.633475711495</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3190302</v>
+        <v>3510342</v>
       </c>
       <c r="D16">
-        <v>1470</v>
+        <v>627</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>1380.604815484171</v>
+        <v>1393.813253112876</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1044,161 +996,143 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3200676</v>
+        <v>3190302</v>
       </c>
       <c r="D17">
-        <v>225</v>
+        <v>1470</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>1325.008417272934</v>
+        <v>1392.854011573438</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3200376</v>
+        <v>3190268</v>
       </c>
       <c r="D18">
-        <v>753</v>
+        <v>861</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>1337.191941923889</v>
+        <v>1368.890931348542</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3290379</v>
+        <v>3200356</v>
       </c>
       <c r="D19">
-        <v>3407</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19">
-        <v>1473.792045617231</v>
+        <v>1366.880076559147</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3481988</v>
+        <v>3020003</v>
       </c>
       <c r="D20">
-        <v>1838</v>
+        <v>577</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>1404.252360845846</v>
+        <v>1365.899520143357</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>1345875</v>
+        <v>3290326</v>
       </c>
       <c r="D21">
-        <v>900</v>
+        <v>11514</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>1448.038699142063</v>
+        <v>1364.36713354438</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>3501255</v>
@@ -1207,735 +1141,660 @@
         <v>978</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>1354.471282804448</v>
+        <v>1362.024754508013</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>3530882</v>
+        <v>3190529</v>
       </c>
       <c r="D23">
-        <v>592</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>1302.558256547488</v>
+        <v>1360.920612346865</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3290407</v>
+        <v>3510534</v>
       </c>
       <c r="D24">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>1351.975748316459</v>
+        <v>1359.17806463692</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3482806</v>
+        <v>3290407</v>
       </c>
       <c r="D25">
-        <v>1099</v>
+        <v>432</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>1296.48838524213</v>
+        <v>1356.331656323121</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3290326</v>
+        <v>3200376</v>
       </c>
       <c r="D26">
-        <v>11514</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>1356.095303109623</v>
+        <v>1352.099605363658</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>3190268</v>
+        <v>3190398</v>
       </c>
       <c r="D27">
-        <v>861</v>
+        <v>585</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>1370.263199723416</v>
+        <v>1351.806848265607</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>3501741</v>
+        <v>3200241</v>
       </c>
       <c r="D28">
-        <v>990</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>1340.816037486382</v>
+        <v>1349.102533341206</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>3190398</v>
+        <v>3501741</v>
       </c>
       <c r="D29">
-        <v>585</v>
+        <v>990</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>1350.75157543677</v>
+        <v>1348.628850916839</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>3181007</v>
+        <v>3150570</v>
       </c>
       <c r="D30">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30">
-        <v>1312.289727462367</v>
+        <v>1324.513374541394</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>3020003</v>
+        <v>3200676</v>
       </c>
       <c r="D31">
-        <v>577</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <v>1368.858791203604</v>
+        <v>1323.907152127188</v>
       </c>
       <c r="G31">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3185256</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>5201</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>1462.307580891505</v>
+        <v>1517.265820207213</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>3505990</v>
+        <v>3486010</v>
       </c>
       <c r="D33">
-        <v>15649</v>
+        <v>16746</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>1484.367382216556</v>
+        <v>1500.602901629201</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>3185256</v>
+        <v>3505990</v>
       </c>
       <c r="D34">
-        <v>5201</v>
+        <v>15649</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34">
-        <v>1510.904155905768</v>
+        <v>1494.634082482829</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3535316</v>
+        <v>3055067</v>
       </c>
       <c r="D35">
-        <v>10007</v>
+        <v>6614</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35">
-        <v>1414.416253511009</v>
+        <v>1480.018931865999</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>3486239</v>
+        <v>3535410</v>
       </c>
       <c r="D36">
-        <v>7809</v>
+        <v>12712</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36">
-        <v>1437.849802755422</v>
+        <v>1472.927042501365</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
-      <c r="I36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>3055067</v>
+        <v>3205460</v>
       </c>
       <c r="D37">
-        <v>6614</v>
+        <v>4757</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37">
-        <v>1477.906902475029</v>
+        <v>1466.414026548147</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
-      <c r="I37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>3506154</v>
+        <v>3486239</v>
       </c>
       <c r="D38">
-        <v>13508</v>
+        <v>7809</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38">
-        <v>1430.027162991457</v>
+        <v>1451.576197324779</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>7</v>
       </c>
-      <c r="I38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>3485933</v>
+        <v>3506154</v>
       </c>
       <c r="D39">
-        <v>7690</v>
+        <v>13508</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39">
-        <v>1333.715889798235</v>
+        <v>1434.018255319638</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>8</v>
       </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>3205460</v>
+        <v>3535316</v>
       </c>
       <c r="D40">
-        <v>4757</v>
+        <v>10007</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40">
-        <v>1459.909914274613</v>
+        <v>1427.003589075787</v>
       </c>
       <c r="G40">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H40">
         <v>9</v>
       </c>
-      <c r="I40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>3485862</v>
+        <v>3565062</v>
       </c>
       <c r="D41">
-        <v>1015</v>
+        <v>12607</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
-        <v>1385.134590741715</v>
+        <v>1426.805140340287</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>3155314</v>
+        <v>3515221</v>
       </c>
       <c r="D42">
-        <v>1975</v>
+        <v>10716</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42">
-        <v>1364.704966319022</v>
+        <v>1401.678488197377</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
-      <c r="I42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3195219</v>
+        <v>3485862</v>
       </c>
       <c r="D43">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
-        <v>1307.718304533136</v>
+        <v>1397.003686698518</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>12</v>
       </c>
-      <c r="I43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>3295322</v>
+        <v>3505809</v>
       </c>
       <c r="D44">
-        <v>429</v>
+        <v>4518</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44">
-        <v>1324.18885536917</v>
+        <v>1390.609715518574</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <v>13</v>
       </c>
-      <c r="I44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>3486010</v>
+        <v>3185579</v>
       </c>
       <c r="D45">
-        <v>16746</v>
+        <v>622</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45">
-        <v>1497.836979099058</v>
+        <v>1381.0079840842</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>14</v>
       </c>
-      <c r="I45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>3565062</v>
+        <v>3155314</v>
       </c>
       <c r="D46">
-        <v>12607</v>
+        <v>1975</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46">
-        <v>1423.256617383354</v>
+        <v>1376.184309114973</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>15</v>
       </c>
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>3505800</v>
+        <v>3486314</v>
       </c>
       <c r="D47">
-        <v>4816</v>
+        <v>730</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47">
-        <v>1339.614732633698</v>
+        <v>1371.582784390113</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1943,219 +1802,195 @@
       <c r="H47">
         <v>16</v>
       </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>3486314</v>
+        <v>3506166</v>
       </c>
       <c r="D48">
-        <v>730</v>
+        <v>4946</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>1361.602908820812</v>
+        <v>1361.695697976359</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>17</v>
       </c>
-      <c r="I48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3295157</v>
+        <v>3506008</v>
       </c>
       <c r="D49">
-        <v>2630</v>
+        <v>2750</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49">
-        <v>1287.171471236471</v>
+        <v>1355.989700587818</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>18</v>
       </c>
-      <c r="I49">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>3515221</v>
+        <v>3485933</v>
       </c>
       <c r="D50">
-        <v>10716</v>
+        <v>7690</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>1398.290417513512</v>
+        <v>1349.758277656216</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>19</v>
       </c>
-      <c r="I50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>3485849</v>
+        <v>3505800</v>
       </c>
       <c r="D51">
-        <v>454</v>
+        <v>4816</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51">
-        <v>1289.297934878691</v>
+        <v>1344.222935602946</v>
       </c>
       <c r="G51">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>20</v>
       </c>
-      <c r="I51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>3535602</v>
+        <v>3295322</v>
       </c>
       <c r="D52">
-        <v>1197</v>
+        <v>429</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52">
-        <v>1307.691184047806</v>
+        <v>1331.501473586683</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>21</v>
       </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>3185579</v>
+        <v>3205407</v>
       </c>
       <c r="D53">
-        <v>622</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53">
-        <v>1375.31142443003</v>
+        <v>1329.933373693978</v>
       </c>
       <c r="G53">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>22</v>
       </c>
-      <c r="I53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>3535601</v>
+        <v>3195219</v>
       </c>
       <c r="D54">
-        <v>217</v>
+        <v>965</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54">
-        <v>1284.5602511403</v>
+        <v>1315.249581959121</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>23</v>
       </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>3435197</v>
@@ -2164,114 +1999,102 @@
         <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55">
-        <v>1313.853771919159</v>
+        <v>1313.337759789164</v>
       </c>
       <c r="G55">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H55">
         <v>24</v>
       </c>
-      <c r="I55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3506008</v>
+        <v>3185551</v>
       </c>
       <c r="D56">
-        <v>2750</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56">
-        <v>1357.654102954614</v>
+        <v>1312.167401958826</v>
       </c>
       <c r="G56">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>25</v>
       </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>3505809</v>
+        <v>3535602</v>
       </c>
       <c r="D57">
-        <v>4518</v>
+        <v>1197</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57">
-        <v>1398.270388893134</v>
+        <v>1311.824214927315</v>
       </c>
       <c r="G57">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H57">
         <v>26</v>
       </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>3555052</v>
+        <v>3506079</v>
       </c>
       <c r="D58">
-        <v>368</v>
+        <v>1793</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58">
-        <v>1278.904428762767</v>
+        <v>1310.310504686136</v>
       </c>
       <c r="G58">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H58">
         <v>27</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>3486563</v>
@@ -2280,27 +2103,24 @@
         <v>540</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59">
-        <v>1302.921022639933</v>
+        <v>1305.662046200157</v>
       </c>
       <c r="G59">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>28</v>
       </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>3505998</v>
@@ -2309,48 +2129,42 @@
         <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60">
-        <v>1299.475278013319</v>
+        <v>1293.938215827199</v>
       </c>
       <c r="G60">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>29</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>3205407</v>
+        <v>3295157</v>
       </c>
       <c r="D61">
-        <v>328</v>
+        <v>2630</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61">
-        <v>1336.149490023306</v>
+        <v>1293.472125489517</v>
       </c>
       <c r="G61">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>30</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/elo/knapsack/fantasydf_spec.xlsx
+++ b/elo/knapsack/fantasydf_spec.xlsx
@@ -40,181 +40,181 @@
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Denis SPITSOV</t>
+  </si>
+  <si>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
     <t>Evgeniy BELOV</t>
   </si>
   <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Calle HALFVARSSON</t>
+    <t>Clement PARISSE</t>
+  </si>
+  <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
+    <t>Jean Marc GAILLARD</t>
+  </si>
+  <si>
+    <t>Artem MALTSEV</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
   </si>
   <si>
     <t>Francesco DE FABIANI</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
-  </si>
-  <si>
     <t>Alexey CHERVOTKIN</t>
   </si>
   <si>
-    <t>Denis SPITSOV</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Artem MALTSEV</t>
-  </si>
-  <si>
-    <t>Lucas BOEGL</t>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Hugo LAPALUS</t>
+  </si>
+  <si>
+    <t>Ireneu ESTEVE ALTIMIRAS</t>
+  </si>
+  <si>
+    <t>Jules LAPIERRE</t>
+  </si>
+  <si>
+    <t>Giandomenico SALVADORI</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
+  </si>
+  <si>
+    <t>Federico PELLEGRINO</t>
   </si>
   <si>
     <t>Jonas BAUMANN</t>
   </si>
   <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Hugo LAPALUS</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
     <t>Thomas BING</t>
   </si>
   <si>
+    <t>Roman FURGER</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
     <t>William POROMAA</t>
   </si>
   <si>
-    <t>Michal NOVAK</t>
+    <t>Scott PATTERSON</t>
   </si>
   <si>
     <t>Janosch BRUGGER</t>
   </si>
   <si>
+    <t>Jessie DIGGINS</t>
+  </si>
+  <si>
     <t>Krista PARMAKOSKI</t>
   </si>
   <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Rosie BRENNAN</t>
+  </si>
+  <si>
     <t>Natalia NEPRYAEVA</t>
   </si>
   <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Jessie DIGGINS</t>
+    <t>Yulia STUPAK</t>
   </si>
   <si>
     <t>Katharina HENNIG</t>
   </si>
   <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
-    <t>Frida KARLSSON</t>
-  </si>
-  <si>
-    <t>Rosie BRENNAN</t>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Delphine CLAUDEL</t>
   </si>
   <si>
     <t>Anamarija LAMPIC</t>
   </si>
   <si>
+    <t>Jonna SUNDLING</t>
+  </si>
+  <si>
+    <t>Anna NECHAEVSKAYA</t>
+  </si>
+  <si>
+    <t>Tatiana SORINA</t>
+  </si>
+  <si>
     <t>Nadine FAEHNDRICH</t>
   </si>
   <si>
+    <t>Emma RIBOM</t>
+  </si>
+  <si>
     <t>Alisa ZHAMBALOVA</t>
   </si>
   <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
+    <t>Anna COMARELLA</t>
+  </si>
+  <si>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
+    <t>Moa LUNDGREN</t>
+  </si>
+  <si>
+    <t>Maja DAHLQVIST</t>
   </si>
   <si>
     <t>Yana KIRPICHENKO</t>
   </si>
   <si>
+    <t>Pia FINK</t>
+  </si>
+  <si>
     <t>Linn SVAHN</t>
   </si>
   <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Tatiana SORINA</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Pia FINK</t>
-  </si>
-  <si>
-    <t>Delphine CLAUDEL</t>
+    <t>Patricija EIDUKA</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
   </si>
   <si>
     <t>Izabela MARCISZ</t>
   </si>
   <si>
-    <t>Jasmi JOENSUU</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Moa LUNDGREN</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
     <t>Moa OLSSON</t>
   </si>
   <si>
-    <t>Lucia SCARDONI</t>
+    <t>Caitlin PATTERSON</t>
+  </si>
+  <si>
+    <t>Katharine OGDEN</t>
   </si>
   <si>
     <t>m</t>
@@ -624,7 +624,7 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1563.275946183737</v>
+        <v>1569.883669528048</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -635,22 +635,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3481161</v>
+        <v>3481803</v>
       </c>
       <c r="D3">
-        <v>3443</v>
+        <v>7488</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1482.662726865662</v>
+        <v>1535.813688753353</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -676,7 +676,7 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1476.916988069916</v>
+        <v>1516.157717903772</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -687,22 +687,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3500664</v>
+        <v>3482280</v>
       </c>
       <c r="D5">
-        <v>2131</v>
+        <v>2646</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1476.425581844955</v>
+        <v>1511.5749816709</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -713,22 +713,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3290379</v>
+        <v>3190111</v>
       </c>
       <c r="D6">
-        <v>3407</v>
+        <v>1450</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1475.680515909988</v>
+        <v>1511.276020310165</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -739,22 +739,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D7">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1474.144521312184</v>
+        <v>1495.249811755924</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -765,22 +765,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>1345875</v>
+        <v>3190302</v>
       </c>
       <c r="D8">
-        <v>900</v>
+        <v>1470</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1445.783254375694</v>
+        <v>1492.45073227862</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3481803</v>
+        <v>3482105</v>
       </c>
       <c r="D9">
-        <v>7488</v>
+        <v>5172</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1435.725893921808</v>
+        <v>1480.007133156578</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -817,22 +817,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3482119</v>
+        <v>1345875</v>
       </c>
       <c r="D10">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1432.544505095437</v>
+        <v>1466.446048751655</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -843,22 +843,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3482280</v>
+        <v>3481432</v>
       </c>
       <c r="D11">
-        <v>2646</v>
+        <v>4522</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1427.69866149672</v>
+        <v>1461.21214547662</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -869,22 +869,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3481988</v>
+        <v>3200376</v>
       </c>
       <c r="D12">
-        <v>1838</v>
+        <v>753</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1417.187259636551</v>
+        <v>1455.205922000278</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3190111</v>
+        <v>3190268</v>
       </c>
       <c r="D13">
-        <v>1450</v>
+        <v>861</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1416.75585851898</v>
+        <v>1446.412751980616</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3481432</v>
+        <v>3200205</v>
       </c>
       <c r="D14">
-        <v>4522</v>
+        <v>1319</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1407.933806114894</v>
+        <v>1437.352752882432</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -947,22 +947,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3200205</v>
+        <v>3290379</v>
       </c>
       <c r="D15">
-        <v>1319</v>
+        <v>3407</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1403.633475711495</v>
+        <v>1436.865066444981</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3510342</v>
+        <v>3482119</v>
       </c>
       <c r="D16">
-        <v>627</v>
+        <v>4000</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1393.813253112876</v>
+        <v>1422.425606714776</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -999,22 +999,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3190302</v>
+        <v>3200356</v>
       </c>
       <c r="D17">
-        <v>1470</v>
+        <v>579</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1392.854011573438</v>
+        <v>1417.933863845853</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1025,22 +1025,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3190268</v>
+        <v>3190529</v>
       </c>
       <c r="D18">
-        <v>861</v>
+        <v>471</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1368.890931348542</v>
+        <v>1411.581535067255</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3200356</v>
+        <v>3020003</v>
       </c>
       <c r="D19">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1366.880076559147</v>
+        <v>1395.752793772332</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3020003</v>
+        <v>3190398</v>
       </c>
       <c r="D20">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1365.899520143357</v>
+        <v>1387.055989107855</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3290326</v>
+        <v>3290407</v>
       </c>
       <c r="D21">
-        <v>11514</v>
+        <v>432</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1364.36713354438</v>
+        <v>1371.734128859096</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3501255</v>
+        <v>3510534</v>
       </c>
       <c r="D22">
-        <v>978</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1362.024754508013</v>
+        <v>1365.995463814761</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1161,16 +1161,16 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3190529</v>
+        <v>3290326</v>
       </c>
       <c r="D23">
-        <v>471</v>
+        <v>11514</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1360.920612346865</v>
+        <v>1359.051059222495</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1181,22 +1181,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3510534</v>
+        <v>3510342</v>
       </c>
       <c r="D24">
-        <v>309</v>
+        <v>627</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1359.17806463692</v>
+        <v>1351.949637974542</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1207,22 +1207,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3290407</v>
+        <v>3200241</v>
       </c>
       <c r="D25">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1356.331656323121</v>
+        <v>1351.349482092891</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3200376</v>
+        <v>3510351</v>
       </c>
       <c r="D26">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1352.099605363658</v>
+        <v>1348.727760884097</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1259,22 +1259,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3190398</v>
+        <v>3150570</v>
       </c>
       <c r="D27">
-        <v>585</v>
+        <v>316</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1351.806848265607</v>
+        <v>1347.717348029758</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3200241</v>
+        <v>3530882</v>
       </c>
       <c r="D28">
-        <v>215</v>
+        <v>592</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1349.102533341206</v>
+        <v>1342.495273545723</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1348.628850916839</v>
+        <v>1323.597381206251</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1337,22 +1337,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3150570</v>
+        <v>3530532</v>
       </c>
       <c r="D30">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1324.513374541394</v>
+        <v>1323.225621873354</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1378,7 +1378,7 @@
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1323.907152127188</v>
+        <v>1322.407345557064</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3185256</v>
+        <v>3535410</v>
       </c>
       <c r="D32">
-        <v>5201</v>
+        <v>12712</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1517.265820207213</v>
+        <v>1540.719084124432</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3486010</v>
+        <v>3185256</v>
       </c>
       <c r="D33">
-        <v>16746</v>
+        <v>5201</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1500.602901629201</v>
+        <v>1517.541323329707</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1456,7 +1456,7 @@
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1494.634082482829</v>
+        <v>1501.218963683138</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -1482,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1480.018931865999</v>
+        <v>1492.768075175097</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3535410</v>
+        <v>3535316</v>
       </c>
       <c r="D36">
-        <v>12712</v>
+        <v>10007</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1472.927042501365</v>
+        <v>1471.853871681006</v>
       </c>
       <c r="G36">
         <v>37</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3205460</v>
+        <v>3486010</v>
       </c>
       <c r="D37">
-        <v>4757</v>
+        <v>16746</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1466.414026548147</v>
+        <v>1471.071379176677</v>
       </c>
       <c r="G37">
         <v>34</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1560,7 +1560,7 @@
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1451.576197324779</v>
+        <v>1440.030129025987</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3506154</v>
+        <v>3205460</v>
       </c>
       <c r="D39">
-        <v>13508</v>
+        <v>4757</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1434.018255319638</v>
+        <v>1409.99822952098</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3535316</v>
+        <v>3155314</v>
       </c>
       <c r="D40">
-        <v>10007</v>
+        <v>1975</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1427.003589075787</v>
+        <v>1392.275202851005</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3565062</v>
+        <v>3195219</v>
       </c>
       <c r="D41">
-        <v>12607</v>
+        <v>965</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1426.805140340287</v>
+        <v>1383.810372615237</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3515221</v>
+        <v>3565062</v>
       </c>
       <c r="D42">
-        <v>10716</v>
+        <v>12607</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1401.678488197377</v>
+        <v>1383.36888670827</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1675,22 +1675,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3485862</v>
+        <v>3505809</v>
       </c>
       <c r="D43">
-        <v>1015</v>
+        <v>4518</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1397.003686698518</v>
+        <v>1378.953405844086</v>
       </c>
       <c r="G43">
         <v>22</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3505809</v>
+        <v>3485849</v>
       </c>
       <c r="D44">
-        <v>4518</v>
+        <v>454</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1390.609715518574</v>
+        <v>1377.4252451641</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3185579</v>
+        <v>3485933</v>
       </c>
       <c r="D45">
-        <v>622</v>
+        <v>7690</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1381.0079840842</v>
+        <v>1366.876069063357</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3155314</v>
+        <v>3515221</v>
       </c>
       <c r="D46">
-        <v>1975</v>
+        <v>10716</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1376.184309114973</v>
+        <v>1363.051778910941</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3486314</v>
+        <v>3506008</v>
       </c>
       <c r="D47">
-        <v>730</v>
+        <v>2750</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1371.582784390113</v>
+        <v>1362.134781813197</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3506166</v>
+        <v>3485862</v>
       </c>
       <c r="D48">
-        <v>4946</v>
+        <v>1015</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1361.695697976359</v>
+        <v>1358.773969960442</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3506008</v>
+        <v>3295322</v>
       </c>
       <c r="D49">
-        <v>2750</v>
+        <v>429</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1355.989700587818</v>
+        <v>1353.293399922565</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3485933</v>
+        <v>3535602</v>
       </c>
       <c r="D50">
-        <v>7690</v>
+        <v>1197</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1349.758277656216</v>
+        <v>1352.073118082945</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3505800</v>
+        <v>3506079</v>
       </c>
       <c r="D51">
-        <v>4816</v>
+        <v>1793</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1344.222935602946</v>
+        <v>1344.767748996303</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3295322</v>
+        <v>3505800</v>
       </c>
       <c r="D52">
-        <v>429</v>
+        <v>4816</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1331.501473586683</v>
+        <v>1338.091514371696</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3205407</v>
+        <v>3486314</v>
       </c>
       <c r="D53">
-        <v>328</v>
+        <v>730</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1329.933373693978</v>
+        <v>1337.699673860507</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3195219</v>
+        <v>3205407</v>
       </c>
       <c r="D54">
-        <v>965</v>
+        <v>328</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1315.249581959121</v>
+        <v>1336.233588521824</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,22 +1987,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3435197</v>
+        <v>3506166</v>
       </c>
       <c r="D55">
-        <v>229</v>
+        <v>4946</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1313.337759789164</v>
+        <v>1325.408854554127</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3185551</v>
+        <v>3555052</v>
       </c>
       <c r="D56">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1312.167401958826</v>
+        <v>1315.507997812811</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2039,22 +2039,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3535602</v>
+        <v>3486563</v>
       </c>
       <c r="D57">
-        <v>1197</v>
+        <v>540</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1311.824214927315</v>
+        <v>1300.731259692502</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3506079</v>
+        <v>3435197</v>
       </c>
       <c r="D58">
-        <v>1793</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1310.310504686136</v>
+        <v>1299.048453045386</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,22 +2091,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3486563</v>
+        <v>3505998</v>
       </c>
       <c r="D59">
-        <v>540</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1305.662046200157</v>
+        <v>1296.041486984115</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3505998</v>
+        <v>3535385</v>
       </c>
       <c r="D60">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1293.938215827199</v>
+        <v>1295.733254937758</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3295157</v>
+        <v>3535601</v>
       </c>
       <c r="D61">
-        <v>2630</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1293.472125489517</v>
+        <v>1289.357740969972</v>
       </c>
       <c r="G61">
         <v>1</v>

--- a/elo/knapsack/fantasydf_spec.xlsx
+++ b/elo/knapsack/fantasydf_spec.xlsx
@@ -37,184 +37,184 @@
     <t>place</t>
   </si>
   <si>
+    <t>Sjur ROETHE</t>
+  </si>
+  <si>
+    <t>Hans Christer HOLUND</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Simen Hegstad KRUEGER</t>
+  </si>
+  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Iivo NISKANEN</t>
+  </si>
+  <si>
+    <t>Andrey LARKOV</t>
+  </si>
+  <si>
+    <t>Andrew MUSGRAVE</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Jens BURMAN</t>
+  </si>
+  <si>
+    <t>Emil IVERSEN</t>
+  </si>
+  <si>
+    <t>Denis SPITSOV</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>Martin Loewstroem NYENGET</t>
+  </si>
+  <si>
+    <t>Naoto BABA</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Jason RUEESCH</t>
+  </si>
+  <si>
     <t>Andrey MELNICHENKO</t>
   </si>
   <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Denis SPITSOV</t>
-  </si>
-  <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
+    <t>Perttu HYVARINEN</t>
+  </si>
+  <si>
+    <t>Paal GOLBERG</t>
+  </si>
+  <si>
+    <t>Andreas KATZ</t>
+  </si>
+  <si>
+    <t>Friedrich MOCH</t>
+  </si>
+  <si>
+    <t>Juho MIKKONEN</t>
+  </si>
+  <si>
+    <t>Joni MAEKI</t>
+  </si>
+  <si>
+    <t>Antoine CYR</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
   </si>
   <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Hugo LAPALUS</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Jonas BAUMANN</t>
-  </si>
-  <si>
-    <t>Thomas BING</t>
-  </si>
-  <si>
-    <t>Roman FURGER</t>
-  </si>
-  <si>
-    <t>Michal NOVAK</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Scott PATTERSON</t>
-  </si>
-  <si>
-    <t>Janosch BRUGGER</t>
+    <t>Therese JOHAUG</t>
+  </si>
+  <si>
+    <t>Heidi WENG</t>
+  </si>
+  <si>
+    <t>Charlotte KALLA</t>
+  </si>
+  <si>
+    <t>Riitta-Liisa ROPONEN</t>
+  </si>
+  <si>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Kerttu NISKANEN</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
-    <t>Krista PARMAKOSKI</t>
+    <t>Masako ISHIDA</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Anne KYLLOENEN</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
   </si>
   <si>
     <t>Ebba ANDERSSON</t>
   </si>
   <si>
-    <t>Teresa STADLOBER</t>
+    <t>Laura MONONEN</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
   </si>
   <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
-    <t>Katharina HENNIG</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Delphine CLAUDEL</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
+    <t>Lilia VASILIEVA</t>
+  </si>
+  <si>
+    <t>Anne Kjersti KALVAA</t>
+  </si>
+  <si>
+    <t>Julia KERN</t>
+  </si>
+  <si>
+    <t>Helene Marie FOSSESHOLM</t>
+  </si>
+  <si>
+    <t>Mariya ISTOMINA</t>
+  </si>
+  <si>
+    <t>Tiril Udnes WENG</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
   </si>
   <si>
     <t>Anna NECHAEVSKAYA</t>
   </si>
   <si>
-    <t>Tatiana SORINA</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
-  </si>
-  <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Moa LUNDGREN</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
-  </si>
-  <si>
-    <t>Pia FINK</t>
-  </si>
-  <si>
-    <t>Linn SVAHN</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Moa OLSSON</t>
-  </si>
-  <si>
-    <t>Caitlin PATTERSON</t>
-  </si>
-  <si>
-    <t>Katharine OGDEN</t>
+    <t>Anni ALAKOSKI</t>
+  </si>
+  <si>
+    <t>Nataliya MEKRYUKOVA</t>
+  </si>
+  <si>
+    <t>Sofia HENRIKSSON</t>
+  </si>
+  <si>
+    <t>Julia PREUSSGER</t>
+  </si>
+  <si>
+    <t>Shiori YOKOHAMA</t>
+  </si>
+  <si>
+    <t>Valentyna KAMINSKA</t>
   </si>
   <si>
     <t>m</t>
@@ -609,25 +609,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3482277</v>
+        <v>3420605</v>
       </c>
       <c r="D2">
-        <v>22366</v>
+        <v>7911</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1569.883669528048</v>
+        <v>1432.196466978563</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -635,25 +635,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3481803</v>
+        <v>3420586</v>
       </c>
       <c r="D3">
-        <v>7488</v>
+        <v>7511</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1535.813688753353</v>
+        <v>1422.897834285102</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -670,16 +670,16 @@
         <v>3510023</v>
       </c>
       <c r="D4">
-        <v>4296</v>
+        <v>3912</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1516.157717903772</v>
+        <v>1413.512691618916</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -687,25 +687,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3482280</v>
+        <v>3421779</v>
       </c>
       <c r="D5">
-        <v>2646</v>
+        <v>6969</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1511.5749816709</v>
+        <v>1393.97026789586</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -713,25 +713,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3190111</v>
+        <v>3482277</v>
       </c>
       <c r="D6">
-        <v>1450</v>
+        <v>22412</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1511.276020310165</v>
+        <v>1391.317921230231</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -739,25 +739,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3481161</v>
+        <v>3180535</v>
       </c>
       <c r="D7">
-        <v>3443</v>
+        <v>11382</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1495.249811755924</v>
+        <v>1380.960483740567</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -765,25 +765,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3190302</v>
+        <v>3481132</v>
       </c>
       <c r="D8">
-        <v>1470</v>
+        <v>2296</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1492.45073227862</v>
+        <v>1373.917259023458</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -791,25 +791,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3482105</v>
+        <v>3220002</v>
       </c>
       <c r="D9">
-        <v>5172</v>
+        <v>3949</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1480.007133156578</v>
+        <v>1370.016976764826</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -817,25 +817,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1345875</v>
+        <v>3481161</v>
       </c>
       <c r="D10">
-        <v>900</v>
+        <v>3244</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1466.446048751655</v>
+        <v>1369.01157809388</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -843,22 +843,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3481432</v>
+        <v>3501223</v>
       </c>
       <c r="D11">
-        <v>4522</v>
+        <v>1886</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1461.21214547662</v>
+        <v>1362.646344551909</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -869,22 +869,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3200376</v>
+        <v>3421320</v>
       </c>
       <c r="D12">
-        <v>753</v>
+        <v>8035</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1455.205922000278</v>
+        <v>1361.365991265495</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -895,25 +895,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3190268</v>
+        <v>3482280</v>
       </c>
       <c r="D13">
-        <v>861</v>
+        <v>2834</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1446.412751980616</v>
+        <v>1358.076279017109</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -930,13 +930,13 @@
         <v>3200205</v>
       </c>
       <c r="D14">
-        <v>1319</v>
+        <v>1392</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1437.352752882432</v>
+        <v>1346.135871095176</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -947,22 +947,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3290379</v>
+        <v>3200356</v>
       </c>
       <c r="D15">
-        <v>3407</v>
+        <v>617</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1436.865066444981</v>
+        <v>1338.541416454098</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3482119</v>
+        <v>3510342</v>
       </c>
       <c r="D16">
-        <v>4000</v>
+        <v>621</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1422.425606714776</v>
+        <v>1337.16139225149</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -999,22 +999,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3200356</v>
+        <v>3421154</v>
       </c>
       <c r="D17">
-        <v>579</v>
+        <v>1935</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1417.933863845853</v>
+        <v>1331.653903245421</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1025,22 +1025,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3190529</v>
+        <v>3300494</v>
       </c>
       <c r="D18">
-        <v>471</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1411.581535067255</v>
+        <v>1331.23494458051</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3020003</v>
+        <v>3200376</v>
       </c>
       <c r="D19">
-        <v>577</v>
+        <v>811</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1395.752793772332</v>
+        <v>1329.515957097779</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3190398</v>
+        <v>3482119</v>
       </c>
       <c r="D20">
-        <v>585</v>
+        <v>3352</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1387.055989107855</v>
+        <v>1325.461516535227</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3290407</v>
+        <v>3510479</v>
       </c>
       <c r="D21">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1371.734128859096</v>
+        <v>1322.220309805787</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3510534</v>
+        <v>3481803</v>
       </c>
       <c r="D22">
-        <v>309</v>
+        <v>6504</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1365.995463814761</v>
+        <v>1320.614026075237</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1155,22 +1155,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3290326</v>
+        <v>3180557</v>
       </c>
       <c r="D23">
-        <v>11514</v>
+        <v>1585</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1359.051059222495</v>
+        <v>1316.728870961413</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1181,22 +1181,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3510342</v>
+        <v>3420909</v>
       </c>
       <c r="D24">
-        <v>627</v>
+        <v>7292</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1351.949637974542</v>
+        <v>1309.060536885184</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1207,22 +1207,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3200241</v>
+        <v>3200072</v>
       </c>
       <c r="D25">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1351.349482092891</v>
+        <v>1304.986854131902</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3510351</v>
+        <v>3200802</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1348.727760884097</v>
+        <v>1302.747750336572</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1259,22 +1259,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3150570</v>
+        <v>3180436</v>
       </c>
       <c r="D27">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1347.717348029758</v>
+        <v>1300</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3530882</v>
+        <v>3180861</v>
       </c>
       <c r="D28">
-        <v>592</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1342.495273545723</v>
+        <v>1300</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1311,22 +1311,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3501741</v>
+        <v>3100406</v>
       </c>
       <c r="D29">
-        <v>990</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1323.597381206251</v>
+        <v>1300</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1337,22 +1337,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3530532</v>
+        <v>3530882</v>
       </c>
       <c r="D30">
-        <v>258</v>
+        <v>626</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1323.225621873354</v>
+        <v>1300</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1363,22 +1363,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3200676</v>
+        <v>3481432</v>
       </c>
       <c r="D31">
-        <v>225</v>
+        <v>4012</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1322.407345557064</v>
+        <v>1300</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1389,25 +1389,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3425301</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>17241</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1540.719084124432</v>
+        <v>1460.3926671197</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3185256</v>
+        <v>3425499</v>
       </c>
       <c r="D33">
-        <v>5201</v>
+        <v>8931</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1517.541323329707</v>
+        <v>1433.21535537517</v>
       </c>
       <c r="G33">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1441,25 +1441,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>3505990</v>
+        <v>3505217</v>
       </c>
       <c r="D34">
-        <v>15649</v>
+        <v>2653</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1501.218963683138</v>
+        <v>1430.011684092625</v>
       </c>
       <c r="G34">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -1467,25 +1467,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3055067</v>
+        <v>1255374</v>
       </c>
       <c r="D35">
-        <v>6614</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1492.768075175097</v>
+        <v>1422.867336977411</v>
       </c>
       <c r="G35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -1493,25 +1493,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3535316</v>
+        <v>3185256</v>
       </c>
       <c r="D36">
-        <v>10007</v>
+        <v>4773</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1471.853871681006</v>
+        <v>1419.697208014722</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1519,25 +1519,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3486010</v>
+        <v>3055067</v>
       </c>
       <c r="D37">
-        <v>16746</v>
+        <v>5621</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1471.071379176677</v>
+        <v>1400.61874610185</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -1545,25 +1545,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3486239</v>
+        <v>3185168</v>
       </c>
       <c r="D38">
-        <v>7809</v>
+        <v>3401</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1440.030129025987</v>
+        <v>1394.93726787078</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -1571,25 +1571,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3205460</v>
+        <v>3535410</v>
       </c>
       <c r="D39">
-        <v>4757</v>
+        <v>13110</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1409.99822952098</v>
+        <v>1392.195543270718</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>8</v>
@@ -1597,25 +1597,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3155314</v>
+        <v>1274580</v>
       </c>
       <c r="D40">
-        <v>1975</v>
+        <v>619</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1392.275202851005</v>
+        <v>1377.628344067777</v>
       </c>
       <c r="G40">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>9</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3195219</v>
+        <v>3486010</v>
       </c>
       <c r="D41">
-        <v>965</v>
+        <v>16886</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1383.810372615237</v>
+        <v>1368.781313131839</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1655,16 +1655,16 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3565062</v>
+        <v>3185137</v>
       </c>
       <c r="D42">
-        <v>12607</v>
+        <v>1627</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1383.36888670827</v>
+        <v>1365.398584096042</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1675,25 +1675,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3505809</v>
+        <v>3205460</v>
       </c>
       <c r="D43">
-        <v>4518</v>
+        <v>4234</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1378.953405844086</v>
+        <v>1345.079153320637</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>12</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3485849</v>
+        <v>3505990</v>
       </c>
       <c r="D44">
-        <v>454</v>
+        <v>12369</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1377.4252451641</v>
+        <v>1342.771445808158</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3485933</v>
+        <v>3185114</v>
       </c>
       <c r="D45">
-        <v>7690</v>
+        <v>948</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1366.876069063357</v>
+        <v>1337.264399113249</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3515221</v>
+        <v>3506008</v>
       </c>
       <c r="D46">
-        <v>10716</v>
+        <v>2601</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1363.051778910941</v>
+        <v>1322.997834104247</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3506008</v>
+        <v>3535316</v>
       </c>
       <c r="D47">
-        <v>2750</v>
+        <v>10497</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1362.134781813197</v>
+        <v>1313.978084137636</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3485862</v>
+        <v>3486003</v>
       </c>
       <c r="D48">
-        <v>1015</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1358.773969960442</v>
+        <v>1311.323376849665</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3295322</v>
+        <v>3425669</v>
       </c>
       <c r="D49">
-        <v>429</v>
+        <v>1739</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1353.293399922565</v>
+        <v>1309.871400877597</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3535602</v>
+        <v>3535562</v>
       </c>
       <c r="D50">
-        <v>1197</v>
+        <v>2248</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1352.073118082945</v>
+        <v>1309.429834441021</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3506079</v>
+        <v>3427109</v>
       </c>
       <c r="D51">
-        <v>1793</v>
+        <v>1661</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1344.767748996303</v>
+        <v>1308.043095066026</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3505800</v>
+        <v>3486548</v>
       </c>
       <c r="D52">
-        <v>4816</v>
+        <v>653</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1338.091514371696</v>
+        <v>1307.729834441021</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3486314</v>
+        <v>3426201</v>
       </c>
       <c r="D53">
-        <v>730</v>
+        <v>3784</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1337.699673860507</v>
+        <v>1306.445449270491</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3205407</v>
+        <v>3486314</v>
       </c>
       <c r="D54">
-        <v>328</v>
+        <v>918</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1336.233588521824</v>
+        <v>1305.805004645593</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,22 +1987,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3506166</v>
+        <v>3485849</v>
       </c>
       <c r="D55">
-        <v>4946</v>
+        <v>533</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1325.408854554127</v>
+        <v>1302.831548244433</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3555052</v>
+        <v>3185610</v>
       </c>
       <c r="D56">
-        <v>368</v>
+        <v>217</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1315.507997812811</v>
+        <v>1300</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2039,22 +2039,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3486563</v>
+        <v>3486901</v>
       </c>
       <c r="D57">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1300.731259692502</v>
+        <v>1300</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3435197</v>
+        <v>3505834</v>
       </c>
       <c r="D58">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1299.048453045386</v>
+        <v>1300</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,22 +2091,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3505998</v>
+        <v>3205422</v>
       </c>
       <c r="D59">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1296.041486984115</v>
+        <v>1300</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3535385</v>
+        <v>3305282</v>
       </c>
       <c r="D60">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1295.733254937758</v>
+        <v>1300</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3535601</v>
+        <v>3665023</v>
       </c>
       <c r="D61">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1289.357740969972</v>
+        <v>1300</v>
       </c>
       <c r="G61">
         <v>1</v>
